--- a/medicine/Psychotrope/Michael_Broadbent/Michael_Broadbent.xlsx
+++ b/medicine/Psychotrope/Michael_Broadbent/Michael_Broadbent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Michael Broadbent, MW (2 mai 1927 - 17 mars 2020) était un critique de vin, écrivain et commissaire-priseur britannique en tant que Master of Wine. Il était une autorité en matière de dégustation de vins et de vins anciens[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Michael Broadbent, MW (2 mai 1927 - 17 mars 2020) était un critique de vin, écrivain et commissaire-priseur britannique en tant que Master of Wine. Il était une autorité en matière de dégustation de vins et de vins anciens.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Broadbent est né dans le Yorkshire. Il a fait ses études à l'école d'Oundle et a suivi une formation d'architecte, mais a changé de carrière, en 1952, à l'âge de vingt-cinq ans, et est entré dans le commerce du vin d'abord avec Layton's, ensuite avec les marchands de vin du West End, Saccone et Speed, et, à partir de 1955 avec Harvey's de Bristol. En 1960, il obtient le diplôme de Master of Wine[2],[3].
-En 1966, il démissionne de son poste de directeur des ventes pour lancer des ventes aux enchères de vins à la maison de vente aux enchères londonienne Christie's, ce qui l'amènera à vendre et à déguster un plus grand nombre de vins fins et rares que quiconque dans le monde. Ses notes de dégustation sont estimées à plus de 90 000 dans plus de 140 carnets[3]. Jusqu'en 1992, il était le directeur principal du département des vins de Christie's[1], et il est resté consultant senior au sein de la société jusqu'en 2009. Broadbent a attribué un vin jusqu'à cinq étoiles, un système différent de la note numérique du critique de vin américain Robert Parker[3].
-En tant qu'écrivain sur le vin, Broadbent s'est fait remarquer pour la publication de ses archives d'une vie de dégustation de vin[4]. Le Great Vintage Wine Book est un ouvrage de référence avec des notes de dégustation de plus de 6 000 vins datant du XVIIe siècle[5]. En plus d'être l'auteur de plusieurs livres sur le vin, il était un collaborateur régulier des magazines sur le vin Vinum et Falstaff et écrivait mensuellement pour Decanter depuis sa création en 1975[3]. Broadbent a donné des conférences sur le sujet depuis le milieu des années 1950.
-En 1979, Broadbent a été nommé Chevalier de l'Ordre national du Mérite, ainsi que membre honoraire de l'Académie du Vin de Bordeaux et de nombreuses autres associations viticoles françaises. Entre autres postes occupés, Broadbent a été président de l'Institute of Masters of Wine en 1970, maître de la Worshipful Company of Distillers, président de l'International Wine and Food Society en 1986, président du Wine &amp; Spirit Education Trust (WSET) 2007– 2009 et président de la Wine &amp; Spirit Trades' Benevolent Society en 1991. Il a également occupé le poste de shérif de la ville de Londres en 1993[3]. En 2006, il a participé en tant que juge à la répétition du 30e anniversaire du concours de dégustation de vins original « Jugement de Paris ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broadbent est né dans le Yorkshire. Il a fait ses études à l'école d'Oundle et a suivi une formation d'architecte, mais a changé de carrière, en 1952, à l'âge de vingt-cinq ans, et est entré dans le commerce du vin d'abord avec Layton's, ensuite avec les marchands de vin du West End, Saccone et Speed, et, à partir de 1955 avec Harvey's de Bristol. En 1960, il obtient le diplôme de Master of Wine,.
+En 1966, il démissionne de son poste de directeur des ventes pour lancer des ventes aux enchères de vins à la maison de vente aux enchères londonienne Christie's, ce qui l'amènera à vendre et à déguster un plus grand nombre de vins fins et rares que quiconque dans le monde. Ses notes de dégustation sont estimées à plus de 90 000 dans plus de 140 carnets. Jusqu'en 1992, il était le directeur principal du département des vins de Christie's, et il est resté consultant senior au sein de la société jusqu'en 2009. Broadbent a attribué un vin jusqu'à cinq étoiles, un système différent de la note numérique du critique de vin américain Robert Parker.
+En tant qu'écrivain sur le vin, Broadbent s'est fait remarquer pour la publication de ses archives d'une vie de dégustation de vin. Le Great Vintage Wine Book est un ouvrage de référence avec des notes de dégustation de plus de 6 000 vins datant du XVIIe siècle. En plus d'être l'auteur de plusieurs livres sur le vin, il était un collaborateur régulier des magazines sur le vin Vinum et Falstaff et écrivait mensuellement pour Decanter depuis sa création en 1975. Broadbent a donné des conférences sur le sujet depuis le milieu des années 1950.
+En 1979, Broadbent a été nommé Chevalier de l'Ordre national du Mérite, ainsi que membre honoraire de l'Académie du Vin de Bordeaux et de nombreuses autres associations viticoles françaises. Entre autres postes occupés, Broadbent a été président de l'Institute of Masters of Wine en 1970, maître de la Worshipful Company of Distillers, président de l'International Wine and Food Society en 1986, président du Wine &amp; Spirit Education Trust (WSET) 2007– 2009 et président de la Wine &amp; Spirit Trades' Benevolent Society en 1991. Il a également occupé le poste de shérif de la ville de Londres en 1993. En 2006, il a participé en tant que juge à la répétition du 30e anniversaire du concours de dégustation de vins original « Jugement de Paris ».
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Broadbent était veuf de feue Daphne Broadbent (1931-2015). Leur fils Bartholomew Broadbent[6] est un importateur de vin aux États-Unis qui produit également du Porto, du Madère et du Vinho Verde au Portugal et était propriétaire à 50 % de la cave Dragon's Hollow en Chine. La fille de Michael Broadbent, Emma, maintenant Lady Arbuthnot d'Edrom, est la magistrate en chef en Angleterre et au Pays de Galles, mariée au très honorable Lord Arbuthnot d'Edrom James Arbuthnot, député[7].
-Le 25 avril 2019, à Londres, il épouse Valerie Smallwood, veuve de Simon Smallwood, MW. Il est décédé le 17 mars 2020 à Berkshire, à l'âge de 92 ans[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Broadbent était veuf de feue Daphne Broadbent (1931-2015). Leur fils Bartholomew Broadbent est un importateur de vin aux États-Unis qui produit également du Porto, du Madère et du Vinho Verde au Portugal et était propriétaire à 50 % de la cave Dragon's Hollow en Chine. La fille de Michael Broadbent, Emma, maintenant Lady Arbuthnot d'Edrom, est la magistrate en chef en Angleterre et au Pays de Galles, mariée au très honorable Lord Arbuthnot d'Edrom James Arbuthnot, député.
+Le 25 avril 2019, à Londres, il épouse Valerie Smallwood, veuve de Simon Smallwood, MW. Il est décédé le 17 mars 2020 à Berkshire, à l'âge de 92 ans,.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Controverse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Broadbent faisait également partie des experts de l'industrie du vin dont l'association avec le prétendu faussaire de vin Hardy Rodenstock au cours des années 1980 a conduit à une certaine gêne[10]. En juillet 2009, il a été annoncé que Broadbent poursuivrait en justice Random House, les éditeurs de The Billionaire's Vinegar de Benjamin Wallace, un compte rendu de "l'affaire des bouteilles Jefferson" et ses affaires judiciaires, pour diffamation de caractère, sur les allégations selon lesquelles le livre affirme que Broadbent a inventé une enchère et contient des références à sa collusion avec Rodenstock. La poursuite a été déposée au Royaume-Uni et Random House a d'abord déclaré qu'elle ne croyait pas avoir diffamé Broadbent et qu'elle défendrait la poursuite[11].
-En octobre 2009, Random House a accepté que les allégations contenues dans le livre étaient sans fondement, a retiré le livre de la vente au Royaume-Uni, a présenté des excuses complètes et a payé à Broadbent une somme non divulguée de dommages et intérêts[12],[13]. Il a également été signalé que Wallace n'était pas partie au procès ou au règlement, que Random House n'apporterait aucun changement au livre et qu'il continuerait à publier le livre dans tous les territoires en dehors de la juridiction du Royaume-Uni[14],[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broadbent faisait également partie des experts de l'industrie du vin dont l'association avec le prétendu faussaire de vin Hardy Rodenstock au cours des années 1980 a conduit à une certaine gêne. En juillet 2009, il a été annoncé que Broadbent poursuivrait en justice Random House, les éditeurs de The Billionaire's Vinegar de Benjamin Wallace, un compte rendu de "l'affaire des bouteilles Jefferson" et ses affaires judiciaires, pour diffamation de caractère, sur les allégations selon lesquelles le livre affirme que Broadbent a inventé une enchère et contient des références à sa collusion avec Rodenstock. La poursuite a été déposée au Royaume-Uni et Random House a d'abord déclaré qu'elle ne croyait pas avoir diffamé Broadbent et qu'elle défendrait la poursuite.
+En octobre 2009, Random House a accepté que les allégations contenues dans le livre étaient sans fondement, a retiré le livre de la vente au Royaume-Uni, a présenté des excuses complètes et a payé à Broadbent une somme non divulguée de dommages et intérêts,. Il a également été signalé que Wallace n'était pas partie au procès ou au règlement, que Random House n'apporterait aucun changement au livre et qu'il continuerait à publier le livre dans tous les territoires en dehors de la juridiction du Royaume-Uni,.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Guidance in the Techniques of Tasting (Harvey's of Bristol circa 1964)
 (en) Guidance in the Techniques of Tasting (Brown &amp; Prank 1966)
